--- a/mcmaster_excel/Screws_for_Joining_Drywall_to_Wood.xlsx
+++ b/mcmaster_excel/Screws_for_Joining_Drywall_to_Wood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,191 +434,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ht.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ApproximateThreads per Inch</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.347"</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.031"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>97151A101</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$4.40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No. 6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>Dia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>Ht.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>ApproximateThreads per Inch</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>97151A111</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No. 6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +582,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>97151A102</t>
+          <t>97151A101</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>$4.40</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>97151A103</t>
+          <t>97151A111</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +666,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +706,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>97151A104</t>
+          <t>97151A102</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +728,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +768,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>97151A105</t>
+          <t>97151A103</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,17 +790,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.363"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.031"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -891,32 +815,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>97151A106</t>
+          <t>97151A104</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -928,17 +852,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.363"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.031"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -953,32 +877,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>97151A107</t>
+          <t>97151A105</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 6</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -990,17 +914,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.363"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>0.039"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,54 +939,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>99136A101</t>
+          <t>97151A106</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No. 6</t>
+          <t>No. 8</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Zinc Yellow-Chromate-Plated Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.363"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>0.039"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1077,44 +1001,44 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>99136A100</t>
+          <t>97151A107</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No. 6</t>
+          <t>No. 8</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Zinc Yellow-Chromate-Plated Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1078,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>99136A102</t>
+          <t>99136A101</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1100,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1140,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>99136A200</t>
+          <t>99136A100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1162,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1202,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>99136A300</t>
+          <t>99136A102</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1224,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1264,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>99136A400</t>
+          <t>99136A200</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1286,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1387,12 +1311,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1402,12 +1326,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>99136A500</t>
+          <t>99136A300</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1429,7 +1353,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.355"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1464,17 +1388,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>99136A103</t>
+          <t>99136A400</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No. 7</t>
+          <t>No. 6</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1486,12 +1410,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.355"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,27 +1440,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>99136A104</t>
+          <t>99136A500</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>No. 7</t>
+          <t>No. 6</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1553,12 +1477,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.363"</t>
+          <t>0.355"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.031"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1583,22 +1507,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>99136A105</t>
+          <t>99136A103</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 7</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1615,12 +1539,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.363"</t>
+          <t>0.355"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.031"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1640,27 +1564,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>99136A600</t>
+          <t>99136A104</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 7</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1672,7 +1596,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1697,12 +1621,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1712,12 +1636,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>99136A700</t>
+          <t>99136A105</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1658,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1764,27 +1688,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>99136A106</t>
+          <t>99136A600</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1796,7 +1720,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3 3/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1826,27 +1750,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>99136A107</t>
+          <t>99136A700</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1858,7 +1782,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1893,17 +1817,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>99136A108</t>
+          <t>99136A106</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1844,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4 1/2"</t>
+          <t>3 3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1884,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>99136A109</t>
+          <t>99136A107</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1906,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1946,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>99136A110</t>
+          <t>99136A108</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +1968,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6"</t>
+          <t>4 1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2008,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>99136A111</t>
+          <t>99136A109</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,17 +2030,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.334"</t>
+          <t>0.363"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>0.039"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2136,49 +2060,49 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>97152A101</t>
+          <t>99136A110</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 10</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
+          <t>Zinc Yellow-Chromate-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>6"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.334"</t>
+          <t>0.363"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>0.039"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2198,7 +2122,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2208,29 +2132,29 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>97152A111</t>
+          <t>99136A111</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
+          <t>Zinc Yellow-Chromate-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2260,22 +2184,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>97152A102</t>
+          <t>97152A101</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2216,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2322,7 +2246,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2332,12 +2256,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>97152A103</t>
+          <t>97152A111</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,60 +2278,184 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.334"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.031"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1 3/8"</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>97152A102</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>No. 8</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2 1/2"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.334"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.031"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1 3/4"</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>97152A103</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>No. 8</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>3"</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>0.334"</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.031"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Partially Threaded</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>97152A104</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>13.31</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
